--- a/chapter3/input/chapter3_demo_data_prediction_result.xlsx
+++ b/chapter3/input/chapter3_demo_data_prediction_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\副業関連\独立\執筆\practical-mi-guide\chapter2\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\副業関連\独立\workdir\practical-mi-guide\chapter3\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB253D-7D27-472D-BD61-1377F90C010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3972E9C7-5239-496E-8A9C-78D1FE75E36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="1390" windowWidth="30300" windowHeight="17850" activeTab="1" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
+    <workbookView xWindow="1570" yWindow="2870" windowWidth="34540" windowHeight="17720" activeTab="1" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>画像濃度</t>
     <rPh sb="0" eb="4">
@@ -517,6 +517,32 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ジッソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐擦過性</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サッカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐擦過性(</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サッカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -527,7 +553,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="187" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -760,13 +786,13 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3433FF01-647B-4F50-A819-EDB9541AAB09}">
   <dimension ref="D2:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H20"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1266,7 +1292,7 @@
   <sheetData>
     <row r="2" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -1297,7 +1323,7 @@
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -1597,9 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A11B813-3861-4F6E-B524-82EDFB9C6B7E}">
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1635,7 +1659,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -1714,7 +1738,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>0</v>
@@ -1726,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>0</v>
@@ -1738,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>0</v>

--- a/chapter3/input/chapter3_demo_data_prediction_result.xlsx
+++ b/chapter3/input/chapter3_demo_data_prediction_result.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\副業関連\独立\workdir\practical-mi-guide\chapter3\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FE5088-5576-45E0-9543-1CEDDE76E05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B71420D-1093-4904-B5E3-9B3E521B41B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="4510" windowWidth="31820" windowHeight="14230" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
+    <workbookView xWindow="5200" yWindow="5200" windowWidth="28800" windowHeight="15410" xr2:uid="{AFFCA931-CB2A-4AED-B7E5-2638B5FCE6AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -600,14 +595,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -615,8 +604,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,13 +1068,13 @@
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="2">
         <v>9.5169317800000002</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="2">
@@ -1091,41 +1086,41 @@
       <c r="I12" s="3">
         <v>5.1043623</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="7"/>
-      <c r="E13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="G13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="2">
         <v>9.28986014</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="2">
@@ -1137,41 +1132,41 @@
       <c r="I14" s="3">
         <v>5.1433290899999999</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="7"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="2">
         <v>9.0627885100000007</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="2">
@@ -1183,41 +1178,41 @@
       <c r="I16" s="3">
         <v>5.1822958799999999</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="7"/>
-      <c r="E17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="2">
         <v>8.9377293600000005</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="2">
@@ -1229,41 +1224,41 @@
       <c r="I18" s="3">
         <v>4.9940683100000003</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="7"/>
-      <c r="E19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2">
         <v>8.7863482699999995</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="2">
@@ -1275,41 +1270,41 @@
       <c r="I20" s="3">
         <v>5.0200461699999996</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="7"/>
-      <c r="E21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="9"/>
+      <c r="I21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="2">
         <v>8.6349671800000003</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="2">
@@ -1321,41 +1316,41 @@
       <c r="I22" s="3">
         <v>5.0460240299999999</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="7"/>
-      <c r="E23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="9"/>
+      <c r="I23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="2">
         <v>8.3585269400000008</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="2">
@@ -1367,41 +1362,41 @@
       <c r="I24" s="3">
         <v>4.8837743199999997</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" s="7"/>
-      <c r="E25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="2">
         <v>8.2828363899999999</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="2">
@@ -1413,41 +1408,41 @@
       <c r="I26" s="3">
         <v>4.8967632500000002</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="7"/>
-      <c r="E27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="2">
         <v>8.2071458400000008</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="2">
@@ -1459,35 +1454,53 @@
       <c r="I28" s="3">
         <v>4.9097521799999999</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" s="7"/>
-      <c r="E29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
@@ -1497,26 +1510,9 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="K26:K27"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>